--- a/Travel details dataset.xlsx
+++ b/Travel details dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni0\שולחן העבודה\ruppin\פרוייקט גמר מערכות מידע\aravaTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E5160-118E-4AE9-9C5E-CBE9CCDBF71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E687C2-D770-4409-A409-C32B72145B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel details dataset משהו נדפ" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="280">
   <si>
     <t>Trip ID</t>
   </si>
@@ -830,10 +830,37 @@
     <t>Indian Airlines</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Iberia</t>
+  </si>
+  <si>
+    <t>Garuda Indonesia</t>
+  </si>
+  <si>
+    <t>Royal Air Maroc</t>
+  </si>
+  <si>
+    <t>Japan Airlines</t>
+  </si>
+  <si>
+    <t>China Airlines</t>
+  </si>
+  <si>
+    <t>Korean Air</t>
+  </si>
+  <si>
+    <t>Sun BusAir Chaiyaphum</t>
+  </si>
+  <si>
+    <t>Toei Bus</t>
+  </si>
+  <si>
+    <t>Charter Buses Toronto</t>
+  </si>
+  <si>
+    <t>Brasil Bus Travel</t>
+  </si>
+  <si>
+    <t>Greyhound </t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1368,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1352,6 +1379,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1790,7 +1823,7 @@
   <sheetPr codeName="Worksheet______1"/>
   <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
@@ -10971,30 +11004,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A868E4-A452-413C-97A1-644A92D3AC65}">
-  <dimension ref="A1:U138"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:B7"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="12.1875" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="12.25" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.25" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="12.1875" customWidth="1"/>
+    <col min="4" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="7.25" customWidth="1"/>
+    <col min="17" max="17" width="13.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.4375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
+    <col min="20" max="20" width="27.75" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11049,17 +11082,17 @@
       <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
-        <v>229</v>
+      <c r="R1" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="T1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U1" t="s">
         <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11114,15 +11147,17 @@
       <c r="Q2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="7">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11177,15 +11212,17 @@
       <c r="Q3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11240,15 +11277,17 @@
       <c r="Q4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S4" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="U4">
-        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11303,15 +11342,17 @@
       <c r="Q5" s="3">
         <v>500</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="7">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
         <v>81</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="1">
+      <c r="T5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="U5" s="1">
         <v>50</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11366,15 +11407,17 @@
       <c r="Q6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="S6" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U6">
-        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11429,15 +11472,17 @@
       <c r="Q7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="S7" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="U7">
-        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11492,17 +11537,17 @@
       <c r="Q8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="7">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="U8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11557,17 +11602,17 @@
       <c r="Q9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="7">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="U9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11622,17 +11667,17 @@
       <c r="Q10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="7">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11687,17 +11732,17 @@
       <c r="Q11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="S11" t="s">
         <v>105</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="U11">
-        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11752,17 +11797,17 @@
       <c r="Q12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="U12">
-        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11817,17 +11862,17 @@
       <c r="Q13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S13" t="s">
         <v>105</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="U13">
-        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11882,17 +11927,17 @@
       <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S14" t="s">
         <v>105</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>200</v>
-      </c>
-      <c r="U14">
-        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -11947,17 +11992,17 @@
       <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="7">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
         <v>105</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>300</v>
-      </c>
-      <c r="U15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12012,17 +12057,17 @@
       <c r="Q16" s="3">
         <v>700</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S16" t="s">
         <v>105</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>200</v>
-      </c>
-      <c r="U16">
-        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12077,17 +12122,17 @@
       <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="7">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
         <v>105</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>300</v>
-      </c>
-      <c r="U17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12142,17 +12187,17 @@
       <c r="Q18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="7">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
         <v>105</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="U18">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12207,17 +12252,17 @@
       <c r="Q19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="7">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
         <v>105</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="U19">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12272,17 +12317,17 @@
       <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="7">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
         <v>105</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>200</v>
-      </c>
-      <c r="U20">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12337,17 +12382,17 @@
       <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="7">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s">
         <v>105</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>300</v>
-      </c>
-      <c r="U21">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12402,17 +12447,17 @@
       <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="7">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
         <v>105</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>2000</v>
-      </c>
-      <c r="U22">
-        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12467,17 +12512,17 @@
       <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="7">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s">
         <v>105</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>2000</v>
-      </c>
-      <c r="U23">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12532,17 +12577,17 @@
       <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="7">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s">
         <v>201</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>150</v>
-      </c>
-      <c r="U24">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12597,17 +12642,17 @@
       <c r="Q25" s="3">
         <v>1200</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="7">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
         <v>68</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>600</v>
-      </c>
-      <c r="U25">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12662,17 +12707,17 @@
       <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="7">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="T26" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>500</v>
-      </c>
-      <c r="U26">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -12727,14 +12772,17 @@
       <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="7">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27" t="s">
+        <v>270</v>
+      </c>
+      <c r="U27" s="1">
         <v>700</v>
-      </c>
-      <c r="U27">
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12789,17 +12837,17 @@
       <c r="Q28" s="3">
         <v>2000</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="7">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
         <v>68</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="T28" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>1000</v>
-      </c>
-      <c r="U28">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12854,17 +12902,17 @@
       <c r="Q29" s="3">
         <v>1500</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="7">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s">
         <v>68</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>800</v>
-      </c>
-      <c r="U29">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12919,17 +12967,17 @@
       <c r="Q30" s="3">
         <v>500</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="7">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
         <v>68</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>1200</v>
-      </c>
-      <c r="U30">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -12984,17 +13032,17 @@
       <c r="Q31" s="3">
         <v>900</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="7">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s">
         <v>68</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>600</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13049,17 +13097,17 @@
       <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="7">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s">
         <v>68</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>800</v>
-      </c>
-      <c r="U32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13114,17 +13162,17 @@
       <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="7">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s">
         <v>68</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="T33" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>500</v>
-      </c>
-      <c r="U33">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13179,17 +13227,17 @@
       <c r="Q34" s="3">
         <v>3000</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="7">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
         <v>68</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="T34" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>1200</v>
-      </c>
-      <c r="U34">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13244,17 +13292,17 @@
       <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="7">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
         <v>68</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="T35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <v>700</v>
-      </c>
-      <c r="U35">
-        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13309,15 +13357,17 @@
       <c r="Q36" s="3">
         <v>600</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="7">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
         <v>68</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="1">
+      <c r="T36" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="U36" s="1">
         <v>400</v>
-      </c>
-      <c r="U36">
-        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13372,20 +13422,20 @@
       <c r="Q37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="7">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s">
         <v>68</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="T37" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>18</v>
       </c>
@@ -13437,15 +13487,17 @@
       <c r="Q38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="7">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s">
         <v>68</v>
       </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="1" t="s">
+      <c r="T38" t="s">
+        <v>270</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="U38">
-        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13500,17 +13552,17 @@
       <c r="Q39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="7">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s">
         <v>68</v>
       </c>
-      <c r="S39" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="U39">
-        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13565,17 +13617,17 @@
       <c r="Q40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="7">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s">
         <v>68</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="T40" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="U40">
-        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13630,15 +13682,17 @@
       <c r="Q41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="7">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s">
         <v>68</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="1" t="s">
+      <c r="T41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U41" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="U41">
-        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13693,17 +13747,17 @@
       <c r="Q42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="7">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s">
         <v>68</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="T42" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="U42" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="U42">
-        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13758,17 +13812,17 @@
       <c r="Q43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="7">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s">
         <v>68</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="T43" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="U43">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13823,17 +13877,17 @@
       <c r="Q44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="7">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
         <v>68</v>
       </c>
-      <c r="S44" s="4" t="s">
+      <c r="T44" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="U44" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="U44">
-        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13888,15 +13942,17 @@
       <c r="Q45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="7">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s">
         <v>68</v>
       </c>
-      <c r="S45" s="4"/>
-      <c r="T45" s="1" t="s">
+      <c r="T45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U45" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="U45">
-        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -13951,17 +14007,17 @@
       <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S46" t="s">
         <v>68</v>
       </c>
-      <c r="S46" s="4" t="s">
+      <c r="T46" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T46" s="1">
+      <c r="U46" s="1">
         <v>600</v>
-      </c>
-      <c r="U46">
-        <v>2.5</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14016,15 +14072,17 @@
       <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S47" t="s">
         <v>68</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="1">
+      <c r="T47" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U47" s="1">
         <v>900</v>
-      </c>
-      <c r="U47">
-        <v>2.5</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14079,17 +14137,17 @@
       <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S48" t="s">
         <v>68</v>
       </c>
-      <c r="S48" s="4" t="s">
+      <c r="T48" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T48" s="1">
+      <c r="U48" s="1">
         <v>800</v>
-      </c>
-      <c r="U48">
-        <v>2.5</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14144,17 +14202,17 @@
       <c r="Q49" s="3">
         <v>1200</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="7">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s">
         <v>68</v>
       </c>
-      <c r="S49" s="4" t="s">
+      <c r="T49" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="T49" s="1">
+      <c r="U49" s="1">
         <v>700</v>
-      </c>
-      <c r="U49">
-        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14209,15 +14267,17 @@
       <c r="Q50" s="3">
         <v>600</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="7">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s">
         <v>68</v>
       </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="1">
+      <c r="T50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="U50" s="1">
         <v>600</v>
-      </c>
-      <c r="U50">
-        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14272,17 +14332,17 @@
       <c r="Q51" s="3">
         <v>1500</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="7">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s">
         <v>68</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="T51" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T51" s="1">
+      <c r="U51" s="1">
         <v>500</v>
-      </c>
-      <c r="U51">
-        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14337,15 +14397,17 @@
       <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="7">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s">
         <v>68</v>
       </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="1">
+      <c r="T52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U52" s="1">
         <v>700</v>
-      </c>
-      <c r="U52">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14400,17 +14462,17 @@
       <c r="Q53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="S53" t="s">
         <v>68</v>
       </c>
-      <c r="S53" s="4" t="s">
+      <c r="T53" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="U53" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="U53">
-        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14465,17 +14527,17 @@
       <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S54" t="s">
         <v>68</v>
       </c>
-      <c r="S54" s="4" t="s">
+      <c r="T54" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T54" s="1">
+      <c r="U54" s="1">
         <v>800</v>
-      </c>
-      <c r="U54">
-        <v>4.5</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14530,17 +14592,17 @@
       <c r="Q55" s="3">
         <v>1500</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="7">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s">
         <v>68</v>
       </c>
-      <c r="S55" s="4" t="s">
+      <c r="T55" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="T55" s="1">
+      <c r="U55" s="1">
         <v>1200</v>
-      </c>
-      <c r="U55">
-        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14595,17 +14657,17 @@
       <c r="Q56" s="3">
         <v>900</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="7">
+        <v>3</v>
+      </c>
+      <c r="S56" t="s">
         <v>68</v>
       </c>
-      <c r="S56" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="T56" s="1">
+      <c r="T56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="U56" s="1">
         <v>700</v>
-      </c>
-      <c r="U56">
-        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14660,17 +14722,17 @@
       <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="7">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s">
         <v>68</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="T57" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T57" s="1">
+      <c r="U57" s="1">
         <v>1000</v>
-      </c>
-      <c r="U57">
-        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14725,17 +14787,17 @@
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="7">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s">
         <v>68</v>
       </c>
-      <c r="S58" s="4" t="s">
+      <c r="T58" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T58" s="1">
+      <c r="U58" s="1">
         <v>800</v>
-      </c>
-      <c r="U58">
-        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14790,15 +14852,17 @@
       <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59" s="7">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s">
         <v>68</v>
       </c>
-      <c r="S59" s="4"/>
-      <c r="T59" s="1">
+      <c r="T59" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U59" s="1">
         <v>700</v>
-      </c>
-      <c r="U59">
-        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14853,15 +14917,17 @@
       <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60" s="7">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s">
         <v>68</v>
       </c>
-      <c r="S60" s="4"/>
-      <c r="T60" s="1">
+      <c r="T60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="U60" s="1">
         <v>1000</v>
-      </c>
-      <c r="U60">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14916,15 +14982,17 @@
       <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="7">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s">
         <v>68</v>
       </c>
-      <c r="S61" s="4"/>
-      <c r="T61" s="1">
+      <c r="T61" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U61" s="1">
         <v>800</v>
-      </c>
-      <c r="U61">
-        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -14979,15 +15047,17 @@
       <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R62" s="7">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s">
         <v>68</v>
       </c>
-      <c r="S62" s="4"/>
-      <c r="T62" s="1">
+      <c r="T62" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="U62" s="1">
         <v>500</v>
-      </c>
-      <c r="U62">
-        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15042,17 +15112,17 @@
       <c r="Q63" s="3">
         <v>1200</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63" s="7">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s">
         <v>68</v>
       </c>
-      <c r="S63" s="4" t="s">
+      <c r="T63" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="T63" s="1">
+      <c r="U63" s="1">
         <v>700</v>
-      </c>
-      <c r="U63">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15107,15 +15177,17 @@
       <c r="Q64" s="3">
         <v>600</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="7">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s">
         <v>68</v>
       </c>
-      <c r="S64" s="4"/>
-      <c r="T64" s="1">
+      <c r="T64" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="U64" s="1">
         <v>700</v>
-      </c>
-      <c r="U64">
-        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15170,17 +15242,17 @@
       <c r="Q65" s="3">
         <v>900</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="7">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s">
         <v>68</v>
       </c>
-      <c r="S65" s="4" t="s">
+      <c r="T65" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="T65" s="1">
+      <c r="U65" s="1">
         <v>600</v>
-      </c>
-      <c r="U65">
-        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15235,15 +15307,17 @@
       <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" t="s">
+      <c r="R66" s="7">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s">
         <v>68</v>
       </c>
-      <c r="S66" s="4"/>
-      <c r="T66" s="1">
+      <c r="T66" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U66" s="1">
         <v>400</v>
-      </c>
-      <c r="U66">
-        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15298,17 +15372,17 @@
       <c r="Q67" s="3">
         <v>1500</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R67" s="7">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s">
         <v>68</v>
       </c>
-      <c r="S67" s="4" t="s">
+      <c r="T67" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T67" s="1">
+      <c r="U67" s="1">
         <v>1000</v>
-      </c>
-      <c r="U67">
-        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15363,17 +15437,17 @@
       <c r="Q68" s="3">
         <v>700</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R68" s="7">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s">
         <v>68</v>
       </c>
-      <c r="S68" s="4" t="s">
+      <c r="T68" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="T68" s="1">
+      <c r="U68" s="1">
         <v>800</v>
-      </c>
-      <c r="U68">
-        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15428,17 +15502,17 @@
       <c r="Q69" s="3">
         <v>100</v>
       </c>
-      <c r="R69" t="s">
+      <c r="R69" s="7">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s">
         <v>68</v>
       </c>
-      <c r="S69" s="4" t="s">
+      <c r="T69" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T69" s="1">
+      <c r="U69" s="1">
         <v>3000</v>
-      </c>
-      <c r="U69">
-        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15493,17 +15567,17 @@
       <c r="Q70" s="3">
         <v>800</v>
       </c>
-      <c r="R70" t="s">
+      <c r="R70" s="7">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s">
         <v>68</v>
       </c>
-      <c r="S70" s="4" t="s">
+      <c r="T70" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T70" s="1">
+      <c r="U70" s="1">
         <v>500</v>
-      </c>
-      <c r="U70">
-        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15558,15 +15632,17 @@
       <c r="Q71" s="3">
         <v>1200</v>
       </c>
-      <c r="R71" t="s">
+      <c r="R71" s="7">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s">
         <v>68</v>
       </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="1">
+      <c r="T71" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="U71" s="1">
         <v>700</v>
-      </c>
-      <c r="U71">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15621,17 +15697,17 @@
       <c r="Q72" s="3">
         <v>900</v>
       </c>
-      <c r="R72" t="s">
+      <c r="R72" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S72" t="s">
         <v>68</v>
       </c>
-      <c r="S72" s="4" t="s">
+      <c r="T72" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="T72" s="1">
+      <c r="U72" s="1">
         <v>600</v>
-      </c>
-      <c r="U72">
-        <v>2.5</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15686,15 +15762,17 @@
       <c r="Q73" s="3">
         <v>300</v>
       </c>
-      <c r="R73" t="s">
+      <c r="R73" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S73" t="s">
         <v>68</v>
       </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="1">
+      <c r="T73" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="U73" s="1">
         <v>400</v>
-      </c>
-      <c r="U73">
-        <v>2.5</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15749,15 +15827,17 @@
       <c r="Q74" s="3">
         <v>1000</v>
       </c>
-      <c r="R74" t="s">
+      <c r="R74" s="7">
+        <v>3</v>
+      </c>
+      <c r="S74" t="s">
         <v>68</v>
       </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="1">
+      <c r="T74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="U74" s="1">
         <v>800</v>
-      </c>
-      <c r="U74">
-        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15812,17 +15892,17 @@
       <c r="Q75" s="3">
         <v>200</v>
       </c>
-      <c r="R75" t="s">
+      <c r="R75" s="7">
+        <v>3</v>
+      </c>
+      <c r="S75" t="s">
         <v>68</v>
       </c>
-      <c r="S75" s="4" t="s">
+      <c r="T75" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="T75" s="1">
+      <c r="U75" s="1">
         <v>350</v>
-      </c>
-      <c r="U75">
-        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15877,17 +15957,17 @@
       <c r="Q76" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R76" t="s">
+      <c r="R76" s="7">
+        <v>3</v>
+      </c>
+      <c r="S76" t="s">
         <v>68</v>
       </c>
-      <c r="S76" s="4" t="s">
+      <c r="T76" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T76" s="1" t="s">
+      <c r="U76" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="U76">
-        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -15942,17 +16022,17 @@
       <c r="Q77" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R77" t="s">
+      <c r="R77" s="7">
+        <v>3</v>
+      </c>
+      <c r="S77" t="s">
         <v>68</v>
       </c>
-      <c r="S77" s="4" t="s">
+      <c r="T77" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T77" s="1" t="s">
+      <c r="U77" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="U77">
-        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16007,15 +16087,17 @@
       <c r="Q78" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R78" t="s">
+      <c r="R78" s="7">
+        <v>4</v>
+      </c>
+      <c r="S78" t="s">
         <v>68</v>
       </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="1" t="s">
+      <c r="T78" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="U78" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="U78">
-        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16070,17 +16152,17 @@
       <c r="Q79" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R79" t="s">
+      <c r="R79" s="7">
+        <v>4</v>
+      </c>
+      <c r="S79" t="s">
         <v>68</v>
       </c>
-      <c r="S79" s="4" t="s">
+      <c r="T79" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="T79" s="1" t="s">
+      <c r="U79" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="U79">
-        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16135,15 +16217,17 @@
       <c r="Q80" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R80" t="s">
+      <c r="R80" s="7">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s">
         <v>68</v>
       </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="1" t="s">
+      <c r="T80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="U80" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="U80">
-        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16198,15 +16282,17 @@
       <c r="Q81" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R81" s="7">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s">
         <v>68</v>
       </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="1" t="s">
+      <c r="T81" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U81" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="U81">
-        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16261,17 +16347,17 @@
       <c r="Q82" s="3">
         <v>1000</v>
       </c>
-      <c r="R82" t="s">
+      <c r="R82" s="7">
+        <v>4</v>
+      </c>
+      <c r="S82" t="s">
         <v>68</v>
       </c>
-      <c r="S82" s="4" t="s">
+      <c r="T82" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T82" s="1">
+      <c r="U82" s="1">
         <v>800</v>
-      </c>
-      <c r="U82">
-        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16326,17 +16412,17 @@
       <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" t="s">
+      <c r="R83" s="7">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s">
         <v>68</v>
       </c>
-      <c r="S83" s="4" t="s">
+      <c r="T83" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T83" s="1">
+      <c r="U83" s="1">
         <v>1200</v>
-      </c>
-      <c r="U83">
-        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16391,17 +16477,17 @@
       <c r="Q84" s="3">
         <v>300</v>
       </c>
-      <c r="R84" t="s">
+      <c r="R84" s="7">
+        <v>5</v>
+      </c>
+      <c r="S84" t="s">
         <v>68</v>
       </c>
-      <c r="S84" s="4" t="s">
+      <c r="T84" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="T84" s="1">
+      <c r="U84" s="1">
         <v>900</v>
-      </c>
-      <c r="U84">
-        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16456,17 +16542,17 @@
       <c r="Q85" s="3">
         <v>2000</v>
       </c>
-      <c r="R85" t="s">
+      <c r="R85" s="7">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s">
         <v>68</v>
       </c>
-      <c r="S85" s="4" t="s">
+      <c r="T85" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="T85" s="1">
+      <c r="U85" s="1">
         <v>700</v>
-      </c>
-      <c r="U85">
-        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16521,17 +16607,17 @@
       <c r="Q86" s="3">
         <v>200</v>
       </c>
-      <c r="R86" t="s">
+      <c r="R86" s="7">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s">
         <v>68</v>
       </c>
-      <c r="S86" s="4" t="s">
+      <c r="T86" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T86" s="1">
+      <c r="U86" s="1">
         <v>500</v>
-      </c>
-      <c r="U86">
-        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16586,17 +16672,17 @@
       <c r="Q87" s="3">
         <v>1000</v>
       </c>
-      <c r="R87" t="s">
+      <c r="R87" s="7">
+        <v>5</v>
+      </c>
+      <c r="S87" t="s">
         <v>68</v>
       </c>
-      <c r="S87" s="4" t="s">
+      <c r="T87" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T87" s="1">
+      <c r="U87" s="1">
         <v>700</v>
-      </c>
-      <c r="U87">
-        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16651,15 +16737,17 @@
       <c r="Q88" s="3">
         <v>800</v>
       </c>
-      <c r="R88" t="s">
+      <c r="R88" s="7">
+        <v>4</v>
+      </c>
+      <c r="S88" t="s">
         <v>68</v>
       </c>
-      <c r="S88" s="4"/>
-      <c r="T88" s="1">
+      <c r="T88" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U88" s="1">
         <v>1000</v>
-      </c>
-      <c r="U88">
-        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16714,15 +16802,17 @@
       <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" t="s">
+      <c r="R89" s="7">
+        <v>3</v>
+      </c>
+      <c r="S89" t="s">
         <v>68</v>
       </c>
-      <c r="S89" s="4"/>
-      <c r="T89" s="1">
+      <c r="T89" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U89" s="1">
         <v>800</v>
-      </c>
-      <c r="U89">
-        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16777,17 +16867,17 @@
       <c r="Q90" s="3">
         <v>1300</v>
       </c>
-      <c r="R90" t="s">
+      <c r="R90" s="7">
+        <v>3</v>
+      </c>
+      <c r="S90" t="s">
         <v>68</v>
       </c>
-      <c r="S90" s="4" t="s">
+      <c r="T90" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T90" s="1">
+      <c r="U90" s="1">
         <v>600</v>
-      </c>
-      <c r="U90">
-        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16842,17 +16932,17 @@
       <c r="Q91" s="3">
         <v>700</v>
       </c>
-      <c r="R91" t="s">
+      <c r="R91" s="7">
+        <v>3</v>
+      </c>
+      <c r="S91" t="s">
         <v>68</v>
       </c>
-      <c r="S91" s="4" t="s">
+      <c r="T91" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="T91" s="1">
+      <c r="U91" s="1">
         <v>900</v>
-      </c>
-      <c r="U91">
-        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16907,15 +16997,17 @@
       <c r="Q92" s="3">
         <v>1200</v>
       </c>
-      <c r="R92" t="s">
+      <c r="R92" s="7">
+        <v>3</v>
+      </c>
+      <c r="S92" t="s">
         <v>68</v>
       </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="1">
+      <c r="T92" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U92" s="1">
         <v>700</v>
-      </c>
-      <c r="U92">
-        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -16970,15 +17062,17 @@
       <c r="Q93" s="3">
         <v>900</v>
       </c>
-      <c r="R93" t="s">
+      <c r="R93" s="7">
+        <v>3</v>
+      </c>
+      <c r="S93" t="s">
         <v>68</v>
       </c>
-      <c r="S93" s="4"/>
-      <c r="T93" s="1">
+      <c r="T93" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="U93" s="1">
         <v>1000</v>
-      </c>
-      <c r="U93">
-        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17033,17 +17127,17 @@
       <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="R94" t="s">
+      <c r="R94" s="7">
+        <v>4</v>
+      </c>
+      <c r="S94" t="s">
         <v>68</v>
       </c>
-      <c r="S94" s="4" t="s">
+      <c r="T94" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T94" s="1">
+      <c r="U94" s="1">
         <v>700</v>
-      </c>
-      <c r="U94">
-        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17098,17 +17192,17 @@
       <c r="Q95" s="3">
         <v>800</v>
       </c>
-      <c r="R95" t="s">
+      <c r="R95" s="7">
+        <v>4</v>
+      </c>
+      <c r="S95" t="s">
         <v>68</v>
       </c>
-      <c r="S95" s="4" t="s">
+      <c r="T95" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="T95" s="1">
+      <c r="U95" s="1">
         <v>800</v>
-      </c>
-      <c r="U95">
-        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17163,17 +17257,17 @@
       <c r="Q96" s="3">
         <v>5000</v>
       </c>
-      <c r="R96" t="s">
+      <c r="R96" s="7">
+        <v>4</v>
+      </c>
+      <c r="S96" t="s">
         <v>68</v>
       </c>
-      <c r="S96" s="4" t="s">
+      <c r="T96" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T96" s="1">
+      <c r="U96" s="1">
         <v>2500</v>
-      </c>
-      <c r="U96">
-        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17228,17 +17322,17 @@
       <c r="Q97" s="3">
         <v>6000</v>
       </c>
-      <c r="R97" t="s">
+      <c r="R97" s="7">
+        <v>4</v>
+      </c>
+      <c r="S97" t="s">
         <v>68</v>
       </c>
-      <c r="S97" s="4" t="s">
+      <c r="T97" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="T97" s="1">
+      <c r="U97" s="1">
         <v>3000</v>
-      </c>
-      <c r="U97">
-        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17293,17 +17387,17 @@
       <c r="Q98" s="3">
         <v>8000</v>
       </c>
-      <c r="R98" t="s">
+      <c r="R98" s="7">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s">
         <v>68</v>
       </c>
-      <c r="S98" s="4" t="s">
+      <c r="T98" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="T98" s="1">
+      <c r="U98" s="1">
         <v>2500</v>
-      </c>
-      <c r="U98">
-        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17358,17 +17452,17 @@
       <c r="Q99" s="3">
         <v>5000</v>
       </c>
-      <c r="R99" t="s">
+      <c r="R99" s="7">
+        <v>3</v>
+      </c>
+      <c r="S99" t="s">
         <v>68</v>
       </c>
-      <c r="S99" s="4" t="s">
+      <c r="T99" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="T99" s="1">
+      <c r="U99" s="1">
         <v>3000</v>
-      </c>
-      <c r="U99">
-        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17423,15 +17517,17 @@
       <c r="Q100" s="3">
         <v>6000</v>
       </c>
-      <c r="R100" t="s">
+      <c r="R100" s="7">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s">
         <v>68</v>
       </c>
-      <c r="S100" s="4"/>
-      <c r="T100" s="1">
+      <c r="T100" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="U100" s="1">
         <v>2500</v>
-      </c>
-      <c r="U100">
-        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17486,17 +17582,17 @@
       <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" t="s">
+      <c r="R101" s="7">
+        <v>3</v>
+      </c>
+      <c r="S101" t="s">
         <v>32</v>
       </c>
-      <c r="S101" s="4" t="s">
+      <c r="T101" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="T101" s="1">
+      <c r="U101" s="1">
         <v>200</v>
-      </c>
-      <c r="U101">
-        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17551,17 +17647,17 @@
       <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" t="s">
+      <c r="R102" s="7">
+        <v>3</v>
+      </c>
+      <c r="S102" t="s">
         <v>32</v>
       </c>
-      <c r="S102" s="4" t="s">
+      <c r="T102" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T102" s="1">
+      <c r="U102" s="1">
         <v>200</v>
-      </c>
-      <c r="U102">
-        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17616,17 +17712,17 @@
       <c r="Q103" s="3">
         <v>800</v>
       </c>
-      <c r="R103" t="s">
+      <c r="R103" s="7">
+        <v>3</v>
+      </c>
+      <c r="S103" t="s">
         <v>32</v>
       </c>
-      <c r="S103" s="4" t="s">
+      <c r="T103" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="T103" s="1">
+      <c r="U103" s="1">
         <v>100</v>
-      </c>
-      <c r="U103">
-        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17681,17 +17777,17 @@
       <c r="Q104" s="3">
         <v>900</v>
       </c>
-      <c r="R104" t="s">
+      <c r="R104" s="7">
+        <v>4</v>
+      </c>
+      <c r="S104" t="s">
         <v>32</v>
       </c>
-      <c r="S104" s="4" t="s">
+      <c r="T104" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T104" s="1">
+      <c r="U104" s="1">
         <v>150</v>
-      </c>
-      <c r="U104">
-        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17746,17 +17842,17 @@
       <c r="Q105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R105" t="s">
+      <c r="R105" s="7">
+        <v>4</v>
+      </c>
+      <c r="S105" t="s">
         <v>32</v>
       </c>
-      <c r="S105" s="4" t="s">
+      <c r="T105" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T105" s="1" t="s">
+      <c r="U105" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="U105">
-        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17811,17 +17907,17 @@
       <c r="Q106" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R106" t="s">
+      <c r="R106" s="7">
+        <v>4</v>
+      </c>
+      <c r="S106" t="s">
         <v>32</v>
       </c>
-      <c r="S106" s="4" t="s">
+      <c r="T106" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T106" s="1" t="s">
+      <c r="U106" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U106">
-        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17876,17 +17972,17 @@
       <c r="Q107" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R107" t="s">
+      <c r="R107" s="7">
+        <v>4</v>
+      </c>
+      <c r="S107" t="s">
         <v>32</v>
       </c>
-      <c r="S107" s="4" t="s">
+      <c r="T107" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T107" s="1" t="s">
+      <c r="U107" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U107">
-        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -17941,17 +18037,17 @@
       <c r="Q108" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R108" t="s">
+      <c r="R108" s="7">
+        <v>5</v>
+      </c>
+      <c r="S108" t="s">
         <v>32</v>
       </c>
-      <c r="S108" s="4" t="s">
+      <c r="T108" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T108" s="1" t="s">
+      <c r="U108" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="U108">
-        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18006,17 +18102,17 @@
       <c r="Q109" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R109" t="s">
+      <c r="R109" s="7">
+        <v>5</v>
+      </c>
+      <c r="S109" t="s">
         <v>32</v>
       </c>
-      <c r="S109" s="4" t="s">
+      <c r="T109" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="T109" s="1" t="s">
+      <c r="U109" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="U109">
-        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18071,17 +18167,17 @@
       <c r="Q110" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R110" t="s">
+      <c r="R110" s="7">
+        <v>5</v>
+      </c>
+      <c r="S110" t="s">
         <v>32</v>
       </c>
-      <c r="S110" s="4" t="s">
+      <c r="T110" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="T110" s="1" t="s">
+      <c r="U110" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U110">
-        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18136,17 +18232,17 @@
       <c r="Q111" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="R111" t="s">
+      <c r="R111" s="7">
+        <v>5</v>
+      </c>
+      <c r="S111" t="s">
         <v>32</v>
       </c>
-      <c r="S111" s="4" t="s">
+      <c r="T111" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T111" s="1" t="s">
+      <c r="U111" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="U111">
-        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18201,17 +18297,17 @@
       <c r="Q112" s="3">
         <v>800</v>
       </c>
-      <c r="R112" t="s">
+      <c r="R112" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="S112" t="s">
         <v>32</v>
       </c>
-      <c r="S112" s="4" t="s">
+      <c r="T112" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T112" s="1">
+      <c r="U112" s="1">
         <v>150</v>
-      </c>
-      <c r="U112">
-        <v>2.5</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18266,17 +18362,17 @@
       <c r="Q113" s="3">
         <v>900</v>
       </c>
-      <c r="R113" t="s">
+      <c r="R113" s="7">
+        <v>5</v>
+      </c>
+      <c r="S113" t="s">
         <v>32</v>
       </c>
-      <c r="S113" s="4" t="s">
+      <c r="T113" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T113" s="1">
+      <c r="U113" s="1">
         <v>100</v>
-      </c>
-      <c r="U113">
-        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18331,17 +18427,17 @@
       <c r="Q114" s="3">
         <v>400</v>
       </c>
-      <c r="R114" t="s">
+      <c r="R114" s="7">
+        <v>5</v>
+      </c>
+      <c r="S114" t="s">
         <v>32</v>
       </c>
-      <c r="S114" s="4" t="s">
+      <c r="T114" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T114" s="1">
+      <c r="U114" s="1">
         <v>150</v>
-      </c>
-      <c r="U114">
-        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18396,17 +18492,17 @@
       <c r="Q115" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R115" t="s">
+      <c r="R115" s="7">
+        <v>5</v>
+      </c>
+      <c r="S115" t="s">
         <v>32</v>
       </c>
-      <c r="S115" s="4" t="s">
+      <c r="T115" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T115" s="1" t="s">
+      <c r="U115" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="U115">
-        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18461,17 +18557,17 @@
       <c r="Q116" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R116" t="s">
+      <c r="R116" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="S116" t="s">
         <v>32</v>
       </c>
-      <c r="S116" s="4" t="s">
+      <c r="T116" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="T116" s="1" t="s">
+      <c r="U116" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="U116">
-        <v>3.5</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18526,17 +18622,17 @@
       <c r="Q117" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R117" t="s">
+      <c r="R117" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="S117" t="s">
         <v>32</v>
       </c>
-      <c r="S117" s="4" t="s">
+      <c r="T117" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T117" s="1" t="s">
+      <c r="U117" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="U117">
-        <v>3.5</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18591,17 +18687,17 @@
       <c r="Q118" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R118" t="s">
+      <c r="R118" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S118" t="s">
         <v>32</v>
       </c>
-      <c r="S118" s="4" t="s">
+      <c r="T118" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T118" s="1" t="s">
+      <c r="U118" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="U118">
-        <v>4.5</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18656,17 +18752,17 @@
       <c r="Q119" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R119" t="s">
+      <c r="R119" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S119" t="s">
         <v>32</v>
       </c>
-      <c r="S119" s="4" t="s">
+      <c r="T119" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T119" s="1" t="s">
+      <c r="U119" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U119">
-        <v>4.5</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18721,17 +18817,17 @@
       <c r="Q120" s="3">
         <v>400</v>
       </c>
-      <c r="R120" t="s">
+      <c r="R120" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="S120" t="s">
         <v>32</v>
       </c>
-      <c r="S120" s="4" t="s">
+      <c r="T120" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="T120" s="1">
+      <c r="U120" s="1">
         <v>300</v>
-      </c>
-      <c r="U120">
-        <v>4.5</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18786,17 +18882,17 @@
       <c r="Q121" s="3">
         <v>1100</v>
       </c>
-      <c r="R121" t="s">
+      <c r="R121" s="7">
+        <v>3</v>
+      </c>
+      <c r="S121" t="s">
         <v>32</v>
       </c>
-      <c r="S121" s="4" t="s">
+      <c r="T121" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T121" s="1">
+      <c r="U121" s="1">
         <v>200</v>
-      </c>
-      <c r="U121">
-        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18851,17 +18947,17 @@
       <c r="Q122" s="3">
         <v>1300</v>
       </c>
-      <c r="R122" t="s">
+      <c r="R122" s="7">
+        <v>4</v>
+      </c>
+      <c r="S122" t="s">
         <v>32</v>
       </c>
-      <c r="S122" s="4" t="s">
+      <c r="T122" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T122" s="1">
+      <c r="U122" s="1">
         <v>100</v>
-      </c>
-      <c r="U122">
-        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18916,17 +19012,17 @@
       <c r="Q123" s="3">
         <v>1000</v>
       </c>
-      <c r="R123" t="s">
+      <c r="R123" s="7">
+        <v>4</v>
+      </c>
+      <c r="S123" t="s">
         <v>32</v>
       </c>
-      <c r="S123" s="4" t="s">
+      <c r="T123" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="T123" s="1">
+      <c r="U123" s="1">
         <v>200</v>
-      </c>
-      <c r="U123">
-        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -18981,17 +19077,17 @@
       <c r="Q124" s="3">
         <v>500</v>
       </c>
-      <c r="R124" t="s">
+      <c r="R124" s="7">
+        <v>5</v>
+      </c>
+      <c r="S124" t="s">
         <v>32</v>
       </c>
-      <c r="S124" s="4" t="s">
+      <c r="T124" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="T124" s="1">
+      <c r="U124" s="1">
         <v>300</v>
-      </c>
-      <c r="U124">
-        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19046,17 +19142,17 @@
       <c r="Q125" s="3">
         <v>400</v>
       </c>
-      <c r="R125" t="s">
+      <c r="R125" s="7">
+        <v>3</v>
+      </c>
+      <c r="S125" t="s">
         <v>32</v>
       </c>
-      <c r="S125" s="4" t="s">
+      <c r="T125" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="T125" s="1">
+      <c r="U125" s="1">
         <v>100</v>
-      </c>
-      <c r="U125">
-        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19111,17 +19207,17 @@
       <c r="Q126" s="3">
         <v>800</v>
       </c>
-      <c r="R126" t="s">
+      <c r="R126" s="7">
+        <v>3</v>
+      </c>
+      <c r="S126" t="s">
         <v>32</v>
       </c>
-      <c r="S126" s="4" t="s">
+      <c r="T126" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T126" s="1">
+      <c r="U126" s="1">
         <v>150</v>
-      </c>
-      <c r="U126">
-        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19176,17 +19272,17 @@
       <c r="Q127" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R127" t="s">
+      <c r="R127" s="7">
+        <v>3</v>
+      </c>
+      <c r="S127" t="s">
         <v>32</v>
       </c>
-      <c r="S127" s="4" t="s">
+      <c r="T127" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="T127" s="1" t="s">
+      <c r="U127" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="U127">
-        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19241,17 +19337,17 @@
       <c r="Q128" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R128" t="s">
+      <c r="R128" s="7">
+        <v>4</v>
+      </c>
+      <c r="S128" t="s">
         <v>32</v>
       </c>
-      <c r="S128" s="4" t="s">
+      <c r="T128" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="T128" s="1" t="s">
+      <c r="U128" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="U128">
-        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19306,17 +19402,17 @@
       <c r="Q129" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R129" t="s">
+      <c r="R129" s="7">
+        <v>4</v>
+      </c>
+      <c r="S129" t="s">
         <v>32</v>
       </c>
-      <c r="S129" s="4" t="s">
+      <c r="T129" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T129" s="1" t="s">
+      <c r="U129" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="U129">
-        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19371,17 +19467,17 @@
       <c r="Q130" s="3">
         <v>800</v>
       </c>
-      <c r="R130" t="s">
+      <c r="R130" s="7">
+        <v>4</v>
+      </c>
+      <c r="S130" t="s">
         <v>32</v>
       </c>
-      <c r="S130" s="4" t="s">
+      <c r="T130" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="T130" s="1">
+      <c r="U130" s="1">
         <v>500</v>
-      </c>
-      <c r="U130">
-        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19436,17 +19532,17 @@
       <c r="Q131" s="3">
         <v>900</v>
       </c>
-      <c r="R131" t="s">
+      <c r="R131" s="7">
+        <v>5</v>
+      </c>
+      <c r="S131" t="s">
         <v>32</v>
       </c>
-      <c r="S131" s="4" t="s">
+      <c r="T131" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T131" s="1">
+      <c r="U131" s="1">
         <v>150</v>
-      </c>
-      <c r="U131">
-        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19501,17 +19597,17 @@
       <c r="Q132" s="3">
         <v>1100</v>
       </c>
-      <c r="R132" t="s">
+      <c r="R132" s="7">
+        <v>5</v>
+      </c>
+      <c r="S132" t="s">
         <v>32</v>
       </c>
-      <c r="S132" s="4" t="s">
+      <c r="T132" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T132" s="1">
+      <c r="U132" s="1">
         <v>250</v>
-      </c>
-      <c r="U132">
-        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19566,17 +19662,17 @@
       <c r="Q133" s="3">
         <v>1200</v>
       </c>
-      <c r="R133" t="s">
+      <c r="R133" s="7">
+        <v>5</v>
+      </c>
+      <c r="S133" t="s">
         <v>32</v>
       </c>
-      <c r="S133" s="4" t="s">
+      <c r="T133" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T133" s="1">
+      <c r="U133" s="1">
         <v>500</v>
-      </c>
-      <c r="U133">
-        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19631,17 +19727,17 @@
       <c r="Q134" s="3">
         <v>900</v>
       </c>
-      <c r="R134" t="s">
+      <c r="R134" s="7">
+        <v>4</v>
+      </c>
+      <c r="S134" t="s">
         <v>32</v>
       </c>
-      <c r="S134" s="4" t="s">
+      <c r="T134" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="T134" s="1">
+      <c r="U134" s="1">
         <v>400</v>
-      </c>
-      <c r="U134">
-        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19696,17 +19792,17 @@
       <c r="Q135" s="3">
         <v>7000</v>
       </c>
-      <c r="R135" t="s">
+      <c r="R135" s="7">
+        <v>4</v>
+      </c>
+      <c r="S135" t="s">
         <v>32</v>
       </c>
-      <c r="S135" s="4" t="s">
+      <c r="T135" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="T135" s="1">
+      <c r="U135" s="1">
         <v>1500</v>
-      </c>
-      <c r="U135">
-        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19761,17 +19857,17 @@
       <c r="Q136" s="3">
         <v>4000</v>
       </c>
-      <c r="R136" t="s">
+      <c r="R136" s="7">
+        <v>4</v>
+      </c>
+      <c r="S136" t="s">
         <v>32</v>
       </c>
-      <c r="S136" s="4" t="s">
+      <c r="T136" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T136" s="1">
+      <c r="U136" s="1">
         <v>1500</v>
-      </c>
-      <c r="U136">
-        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19826,17 +19922,17 @@
       <c r="Q137" s="3">
         <v>2000</v>
       </c>
-      <c r="R137" t="s">
+      <c r="R137" s="7">
+        <v>2</v>
+      </c>
+      <c r="S137" t="s">
         <v>32</v>
       </c>
-      <c r="S137" s="4" t="s">
+      <c r="T137" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="T137" s="1">
+      <c r="U137" s="1">
         <v>1000</v>
-      </c>
-      <c r="U137">
-        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" x14ac:dyDescent="0.4">
@@ -19891,22 +19987,22 @@
       <c r="Q138" s="3">
         <v>7000</v>
       </c>
-      <c r="R138" t="s">
+      <c r="R138" s="7">
+        <v>4</v>
+      </c>
+      <c r="S138" t="s">
         <v>32</v>
       </c>
-      <c r="S138" s="4" t="s">
+      <c r="T138" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="T138" s="1">
+      <c r="U138" s="1">
         <v>2500</v>
       </c>
-      <c r="U138">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U139">
-    <sortCondition ref="R47:R139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V139">
+    <sortCondition ref="S47:S139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Travel details dataset.xlsx
+++ b/Travel details dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni0\שולחן העבודה\ruppin\פרוייקט גמר מערכות מידע\aravaTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456997C2-3466-4C0E-9252-FFB2E0469030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2B1862-FA83-4E92-869B-D40E7C7C8677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel details dataset (2)" sheetId="3" r:id="rId1"/>
@@ -1512,9 +1512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא של Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1552,7 +1552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1658,7 +1658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1800,7 +1800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14037,7 +14037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78657B-85A0-4FCE-8E2C-5A1B6A48F26A}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14285,7 +14287,7 @@
         <v>1400</v>
       </c>
       <c r="C22" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">

--- a/Travel details dataset.xlsx
+++ b/Travel details dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni0\שולחן העבודה\ruppin\פרוייקט גמר מערכות מידע\aravaTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2B1862-FA83-4E92-869B-D40E7C7C8677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7875FF6-D4AE-4EB0-A605-2F0DC61D98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel details dataset (2)" sheetId="3" r:id="rId1"/>
@@ -14037,7 +14037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78657B-85A0-4FCE-8E2C-5A1B6A48F26A}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -16689,8 +16689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41668F86-38B5-4179-B332-A61EA09A481C}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/Travel details dataset.xlsx
+++ b/Travel details dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni0\שולחן העבודה\ruppin\פרוייקט גמר מערכות מידע\aravaTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7875FF6-D4AE-4EB0-A605-2F0DC61D98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980C66F-F529-499F-BA79-AF486F003098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel details dataset (2)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="300">
   <si>
     <t>Trip ID</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>Transportation SN</t>
+  </si>
+  <si>
+    <t>Accommodation rating</t>
   </si>
 </sst>
 </file>
@@ -1830,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A868E4-A452-413C-97A1-644A92D3AC65}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="J121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:T138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1845,10 +1848,10 @@
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="13.625" customWidth="1"/>
-    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="16.875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="19.25" customWidth="1"/>
     <col min="19" max="19" width="20.75" style="2" customWidth="1"/>
     <col min="20" max="21" width="21.4375" style="5" customWidth="1"/>
@@ -1916,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>298</v>
@@ -12083,7 +12086,7 @@
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -14035,1534 +14038,1947 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78657B-85A0-4FCE-8E2C-5A1B6A48F26A}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>1200</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
+        <v>800</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>700</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>500</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>900</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>800</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>900</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>132</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>149</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="3">
+        <v>800</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3">
+        <v>500</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3">
         <v>2200</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D43" s="5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="3">
+        <v>900</v>
+      </c>
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="3">
+        <v>600</v>
+      </c>
+      <c r="D46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3">
+        <v>500</v>
+      </c>
+      <c r="D48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="3">
+        <v>400</v>
+      </c>
+      <c r="D49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D62" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="3">
+        <v>400</v>
+      </c>
+      <c r="D63" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="3">
         <v>800</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D64" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="3">
+        <v>900</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2200</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="3">
+        <v>300</v>
+      </c>
+      <c r="D70" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="3">
+        <v>500</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>184</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>185</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="3">
+        <v>800</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>186</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>187</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="3">
+        <v>400</v>
+      </c>
+      <c r="D77" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>188</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="3">
+        <v>600</v>
+      </c>
+      <c r="D78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C79" s="3">
+        <v>900</v>
+      </c>
+      <c r="D79" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>190</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3">
+        <v>400</v>
+      </c>
+      <c r="D80" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D81" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="3">
+        <v>700</v>
+      </c>
+      <c r="D82" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="3">
+        <v>100</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>111</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3">
+        <v>800</v>
+      </c>
+      <c r="D84" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="3">
+        <v>500</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D86" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="3">
+        <v>900</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>198</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="3">
+        <v>700</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>199</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="3">
+        <v>300</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="3">
+        <v>400</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="3">
+        <v>200</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="3">
+        <v>800</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D95" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>209</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>210</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>211</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>137</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="3">
         <v>1000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D106" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="3">
+        <v>800</v>
+      </c>
+      <c r="D107" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D108" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C109" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D109" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="3">
+        <v>300</v>
+      </c>
+      <c r="D110" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="3">
+        <v>900</v>
+      </c>
+      <c r="D111" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D112" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D113" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D114" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D115" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="3">
+        <v>200</v>
+      </c>
+      <c r="D116" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D117" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>139</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D118" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="3">
         <v>800</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D119" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>113</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="3">
+        <v>900</v>
+      </c>
+      <c r="D120" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="3">
+        <v>500</v>
+      </c>
+      <c r="D121" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1300</v>
+      </c>
+      <c r="D122" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="3">
+        <v>700</v>
+      </c>
+      <c r="D123" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>234</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="3">
+        <v>900</v>
+      </c>
+      <c r="D125" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>236</v>
+      </c>
+      <c r="B126" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="C126" s="3">
+        <v>400</v>
+      </c>
+      <c r="D126" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>237</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="3">
+        <v>800</v>
+      </c>
+      <c r="D127" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D128" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>240</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D129" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D130" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>242</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D131" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D132" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>198</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D133" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D134" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>246</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D135" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>247</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D136" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>248</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D137" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>249</v>
+      </c>
+      <c r="B138" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>900</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
-        <v>700</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3">
-        <v>500</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3">
-        <v>900</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>800</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="3">
-        <v>600</v>
-      </c>
-      <c r="C23" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3">
-        <v>900</v>
-      </c>
-      <c r="C24" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="3">
-        <v>400</v>
-      </c>
-      <c r="C28" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C35" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C37" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C41" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1400</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="3">
-        <v>800</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="3">
-        <v>500</v>
-      </c>
-      <c r="C53" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C54" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="3">
-        <v>900</v>
-      </c>
-      <c r="C55" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="3">
-        <v>600</v>
-      </c>
-      <c r="C56" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C57" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="3">
-        <v>500</v>
-      </c>
-      <c r="C58" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="3">
-        <v>400</v>
-      </c>
-      <c r="C59" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="C60" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C72" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="3">
-        <v>800</v>
-      </c>
-      <c r="C73" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C74" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="3">
-        <v>900</v>
-      </c>
-      <c r="C75" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="3">
-        <v>900</v>
-      </c>
-      <c r="C76" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="3">
-        <v>900</v>
-      </c>
-      <c r="C77" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="3">
-        <v>2200</v>
-      </c>
-      <c r="C78" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1100</v>
-      </c>
-      <c r="C79" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C80" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="3">
-        <v>300</v>
-      </c>
-      <c r="C81" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C82" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="C83" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="3">
-        <v>500</v>
-      </c>
-      <c r="C85" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="3">
-        <v>500</v>
-      </c>
-      <c r="C86" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="3">
-        <v>800</v>
-      </c>
-      <c r="C87" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C88" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" s="3">
-        <v>800</v>
-      </c>
-      <c r="C89" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C90" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>140</v>
-      </c>
-      <c r="B91" s="3">
-        <v>400</v>
-      </c>
-      <c r="C91" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="3">
-        <v>600</v>
-      </c>
-      <c r="C92" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="3">
-        <v>400</v>
-      </c>
-      <c r="C93" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C94" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="3">
-        <v>700</v>
-      </c>
-      <c r="C95" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="3">
-        <v>100</v>
-      </c>
-      <c r="C96" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="3">
-        <v>700</v>
-      </c>
-      <c r="C97" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C98" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="3">
-        <v>300</v>
-      </c>
-      <c r="C99" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C100" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" s="3">
-        <v>400</v>
-      </c>
-      <c r="C101" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="3">
-        <v>200</v>
-      </c>
-      <c r="C102" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>20</v>
-      </c>
-      <c r="B103" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C103" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="3">
-        <v>800</v>
-      </c>
-      <c r="C104" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C106" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C110" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C112" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C113" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>30</v>
-      </c>
-      <c r="B114" s="3">
-        <v>300</v>
-      </c>
-      <c r="C114" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="3">
-        <v>900</v>
-      </c>
-      <c r="C115" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B116" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C116" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="3">
-        <v>1100</v>
-      </c>
-      <c r="C117" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C118" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C119" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="3">
-        <v>200</v>
-      </c>
-      <c r="C120" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C121" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="3">
-        <v>800</v>
-      </c>
-      <c r="C122" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>30</v>
-      </c>
-      <c r="B123" s="3">
-        <v>500</v>
-      </c>
-      <c r="C123" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C124" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B125" s="3">
-        <v>700</v>
-      </c>
-      <c r="C125" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="3">
-        <v>1200</v>
-      </c>
-      <c r="C126" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" s="3">
-        <v>900</v>
-      </c>
-      <c r="C127" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>30</v>
-      </c>
-      <c r="B128" s="3">
-        <v>400</v>
-      </c>
-      <c r="C128" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="3">
-        <v>800</v>
-      </c>
-      <c r="C129" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C130" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" s="3">
+      <c r="C138" s="3">
         <v>7000</v>
       </c>
-      <c r="C131" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>30</v>
-      </c>
-      <c r="B132" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C132" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="3">
-        <v>6000</v>
-      </c>
-      <c r="C133" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>30</v>
-      </c>
-      <c r="B134" s="3">
-        <v>2500</v>
-      </c>
-      <c r="C134" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C135" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C136" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>25</v>
-      </c>
-      <c r="B137" s="3">
-        <v>6000</v>
-      </c>
-      <c r="C137" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="3">
-        <v>7000</v>
-      </c>
-      <c r="C138" s="5">
+      <c r="D138" s="5">
         <v>4</v>
       </c>
     </row>
@@ -16689,7 +17105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41668F86-38B5-4179-B332-A61EA09A481C}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -19471,8 +19887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3636A9CB-0D60-4DF8-A673-AD6BAB57A52C}">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/Travel details dataset.xlsx
+++ b/Travel details dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni0\שולחן העבודה\ruppin\פרוייקט גמר מערכות מידע\aravaTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4980C66F-F529-499F-BA79-AF486F003098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86915E95-082E-4FFD-BDCD-CAB275C0F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Travel details dataset.xlsx
+++ b/Travel details dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni0\שולחן העבודה\ruppin\פרוייקט גמר מערכות מידע\aravaTrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86915E95-082E-4FFD-BDCD-CAB275C0F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED4357E-C559-40BC-B827-A42AF2A849D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel details dataset (2)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3239" uniqueCount="300">
   <si>
     <t>Trip ID</t>
   </si>
@@ -1833,20 +1833,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A868E4-A452-413C-97A1-644A92D3AC65}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView topLeftCell="J121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T138"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="B1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="12.1875" customWidth="1"/>
-    <col min="5" max="5" width="15.4375" customWidth="1"/>
-    <col min="6" max="6" width="13.6875" customWidth="1"/>
-    <col min="7" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="2" max="2" width="24.25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6875" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="12.25" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
     <col min="13" max="13" width="16.875" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="11" hidden="1" customWidth="1"/>
@@ -14040,1945 +14040,1534 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A78657B-85A0-4FCE-8E2C-5A1B6A48F26A}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3">
         <v>1200</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>112</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
         <v>800</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
         <v>1000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
         <v>2000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
         <v>700</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>1500</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
         <v>500</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>118</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
         <v>900</v>
       </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
         <v>1200</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="3">
         <v>2500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>121</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
         <v>1000</v>
       </c>
-      <c r="D12" s="5">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
         <v>800</v>
       </c>
-      <c r="D13" s="5">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
+      <c r="B14" s="3">
         <v>3000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="C14" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3">
         <v>1400</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>125</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
         <v>600</v>
       </c>
-      <c r="D16" s="5">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>900</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="3">
+        <v>800</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="3">
+        <v>500</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3">
+        <v>900</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="3">
+        <v>600</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="3">
+        <v>500</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="3">
+        <v>400</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C62" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="3">
+        <v>400</v>
+      </c>
+      <c r="C63" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B64" s="3">
+        <v>800</v>
+      </c>
+      <c r="C64" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="B65" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="3">
         <v>900</v>
       </c>
-      <c r="D17" s="5">
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="3">
+        <v>300</v>
+      </c>
+      <c r="C70" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>114</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B71" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C71" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="C72" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="3">
+        <v>500</v>
+      </c>
+      <c r="C73" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C74" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="3">
+        <v>800</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C76" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="3">
+        <v>400</v>
+      </c>
+      <c r="C77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="3">
+        <v>600</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="3">
+        <v>900</v>
+      </c>
+      <c r="C79" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="3">
+        <v>400</v>
+      </c>
+      <c r="C80" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C81" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="3">
+        <v>700</v>
+      </c>
+      <c r="C82" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="3">
+        <v>100</v>
+      </c>
+      <c r="C83" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="3">
+        <v>800</v>
+      </c>
+      <c r="C84" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="3">
+        <v>500</v>
+      </c>
+      <c r="C85" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C86" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="3">
+        <v>900</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="3">
+        <v>700</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="3">
+        <v>300</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C90" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="3">
+        <v>400</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="3">
+        <v>200</v>
+      </c>
+      <c r="C92" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C93" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="3">
+        <v>800</v>
+      </c>
+      <c r="C94" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5">
+      <c r="C103" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>128</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C106" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="3">
+        <v>800</v>
+      </c>
+      <c r="C107" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C108" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B109" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C109" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="3">
+        <v>300</v>
+      </c>
+      <c r="C110" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="3">
+        <v>900</v>
+      </c>
+      <c r="C111" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C112" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C113" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C114" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C115" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="3">
+        <v>200</v>
+      </c>
+      <c r="C116" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C117" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C118" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="3">
+        <v>800</v>
+      </c>
+      <c r="C119" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B120" s="3">
+        <v>900</v>
+      </c>
+      <c r="C120" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>130</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="3">
+        <v>500</v>
+      </c>
+      <c r="C121" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B122" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C122" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="3">
+        <v>700</v>
+      </c>
+      <c r="C123" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="3">
+        <v>900</v>
+      </c>
+      <c r="C125" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="3">
+        <v>400</v>
+      </c>
+      <c r="C126" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>131</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="3">
+        <v>800</v>
+      </c>
+      <c r="C127" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C128" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B129" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C129" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>132</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C130" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B131" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C131" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>133</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B132" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C132" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>134</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C133" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>135</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B134" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C134" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>137</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B135" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C135" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C136" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C137" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>138</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>139</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>140</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>142</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>143</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>144</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>145</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>146</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>147</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>148</v>
-      </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1400</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="3">
-        <v>800</v>
-      </c>
-      <c r="D41" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>151</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="3">
-        <v>500</v>
-      </c>
-      <c r="D42" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>153</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D44" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>154</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="3">
-        <v>900</v>
-      </c>
-      <c r="D45" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>155</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="3">
-        <v>600</v>
-      </c>
-      <c r="D46" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>156</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D47" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="3">
-        <v>500</v>
-      </c>
-      <c r="D48" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>158</v>
-      </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="3">
-        <v>400</v>
-      </c>
-      <c r="D49" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>159</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D50" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>163</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>164</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>165</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>166</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>167</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>168</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>169</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>170</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D62" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="3">
-        <v>400</v>
-      </c>
-      <c r="D63" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>173</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="3">
-        <v>800</v>
-      </c>
-      <c r="D64" s="5">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>174</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D65" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>175</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="3">
-        <v>900</v>
-      </c>
-      <c r="D66" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>176</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="3">
-        <v>2200</v>
-      </c>
-      <c r="D67" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>177</v>
-      </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D68" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D69" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>179</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="3">
-        <v>300</v>
-      </c>
-      <c r="D70" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>180</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D71" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D72" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>183</v>
-      </c>
-      <c r="B73" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="3">
-        <v>500</v>
-      </c>
-      <c r="D73" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>184</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D74" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>185</v>
-      </c>
-      <c r="B75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="3">
-        <v>800</v>
-      </c>
-      <c r="D75" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>186</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D76" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="3">
-        <v>400</v>
-      </c>
-      <c r="D77" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>188</v>
-      </c>
-      <c r="B78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="3">
-        <v>600</v>
-      </c>
-      <c r="D78" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>174</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="3">
-        <v>900</v>
-      </c>
-      <c r="D79" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>190</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="3">
-        <v>400</v>
-      </c>
-      <c r="D80" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>191</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D81" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>192</v>
-      </c>
-      <c r="B82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="3">
-        <v>700</v>
-      </c>
-      <c r="D82" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>193</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="3">
-        <v>100</v>
-      </c>
-      <c r="D83" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>111</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="3">
-        <v>800</v>
-      </c>
-      <c r="D84" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>183</v>
-      </c>
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="3">
-        <v>500</v>
-      </c>
-      <c r="D85" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>137</v>
-      </c>
-      <c r="B86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D86" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>174</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="3">
-        <v>900</v>
-      </c>
-      <c r="D87" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>198</v>
-      </c>
-      <c r="B88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="3">
-        <v>700</v>
-      </c>
-      <c r="D88" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>199</v>
-      </c>
-      <c r="B89" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="3">
-        <v>300</v>
-      </c>
-      <c r="D89" s="5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>200</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D90" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>201</v>
-      </c>
-      <c r="B91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="3">
-        <v>400</v>
-      </c>
-      <c r="D91" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>202</v>
-      </c>
-      <c r="B92" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="3">
-        <v>200</v>
-      </c>
-      <c r="D92" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>203</v>
-      </c>
-      <c r="B93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D93" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>204</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="3">
-        <v>800</v>
-      </c>
-      <c r="D94" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>111</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D95" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>206</v>
-      </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>113</v>
-      </c>
-      <c r="B97" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>181</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>209</v>
-      </c>
-      <c r="B99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>210</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>211</v>
-      </c>
-      <c r="B101" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D101" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>137</v>
-      </c>
-      <c r="B102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>213</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D103" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>214</v>
-      </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>215</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>111</v>
-      </c>
-      <c r="B106" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D106" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>183</v>
-      </c>
-      <c r="B107" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="3">
-        <v>800</v>
-      </c>
-      <c r="D107" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>218</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>219</v>
-      </c>
-      <c r="B109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D109" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>220</v>
-      </c>
-      <c r="B110" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="3">
-        <v>300</v>
-      </c>
-      <c r="D110" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>221</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="3">
-        <v>900</v>
-      </c>
-      <c r="D111" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D112" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>223</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="3">
-        <v>1100</v>
-      </c>
-      <c r="D113" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>224</v>
-      </c>
-      <c r="B114" t="s">
-        <v>25</v>
-      </c>
-      <c r="C114" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D114" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>225</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D115" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>226</v>
-      </c>
-      <c r="B116" t="s">
-        <v>30</v>
-      </c>
-      <c r="C116" s="3">
-        <v>200</v>
-      </c>
-      <c r="D116" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>227</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D117" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>139</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D118" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>229</v>
-      </c>
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="3">
-        <v>800</v>
-      </c>
-      <c r="D119" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>113</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="3">
-        <v>900</v>
-      </c>
-      <c r="D120" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>231</v>
-      </c>
-      <c r="B121" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121" s="3">
-        <v>500</v>
-      </c>
-      <c r="D121" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>232</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="3">
-        <v>1300</v>
-      </c>
-      <c r="D122" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>233</v>
-      </c>
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="3">
-        <v>700</v>
-      </c>
-      <c r="D123" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>234</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D124" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>235</v>
-      </c>
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="3">
-        <v>900</v>
-      </c>
-      <c r="D125" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>236</v>
-      </c>
-      <c r="B126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="3">
-        <v>400</v>
-      </c>
-      <c r="D126" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>237</v>
-      </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" s="3">
-        <v>800</v>
-      </c>
-      <c r="D127" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>239</v>
-      </c>
-      <c r="B128" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D128" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>240</v>
-      </c>
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="3">
+      <c r="B138" s="3">
         <v>7000</v>
       </c>
-      <c r="D129" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>241</v>
-      </c>
-      <c r="B130" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D130" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>242</v>
-      </c>
-      <c r="B131" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D131" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>136</v>
-      </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D132" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>198</v>
-      </c>
-      <c r="B133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="3">
-        <v>8000</v>
-      </c>
-      <c r="D133" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>245</v>
-      </c>
-      <c r="B134" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D134" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>246</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D135" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>247</v>
-      </c>
-      <c r="B136" t="s">
-        <v>30</v>
-      </c>
-      <c r="C136" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D136" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>248</v>
-      </c>
-      <c r="B137" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D137" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>249</v>
-      </c>
-      <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D138" s="5">
+      <c r="C138" s="5">
         <v>4</v>
       </c>
     </row>
@@ -15991,8 +15580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B40B43-7E98-4FDE-A566-EBF70EF85EEA}">
   <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -19888,7 +19477,7 @@
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -19902,7 +19491,7 @@
     <col min="10" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="24.25" customWidth="1"/>
     <col min="12" max="12" width="21.4375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="21.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="20.875" customWidth="1"/>
     <col min="15" max="15" width="27.75" customWidth="1"/>
   </cols>
@@ -19944,7 +19533,9 @@
       <c r="L1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.4">
@@ -19984,6 +19575,9 @@
       <c r="L2" s="5">
         <v>30</v>
       </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="1"/>
     </row>
@@ -20024,6 +19618,9 @@
       <c r="L3" s="5">
         <v>12</v>
       </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="1"/>
     </row>
@@ -20064,6 +19661,9 @@
       <c r="L4" s="5">
         <v>19</v>
       </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="1"/>
     </row>
@@ -20104,6 +19704,9 @@
       <c r="L5" s="5">
         <v>15</v>
       </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="1"/>
     </row>
@@ -20144,6 +19747,9 @@
       <c r="L6" s="5">
         <v>40</v>
       </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="1"/>
     </row>
@@ -20184,6 +19790,9 @@
       <c r="L7" s="5">
         <v>17</v>
       </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="1"/>
     </row>
@@ -20224,6 +19833,9 @@
       <c r="L8" s="5">
         <v>31</v>
       </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.4">
@@ -20263,6 +19875,9 @@
       <c r="L9" s="5">
         <v>13</v>
       </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="1"/>
     </row>
@@ -20303,6 +19918,9 @@
       <c r="L10" s="5">
         <v>34</v>
       </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="1"/>
     </row>
@@ -20343,6 +19961,9 @@
       <c r="L11" s="5">
         <v>18</v>
       </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="1"/>
     </row>
@@ -20383,6 +20004,9 @@
       <c r="L12" s="5">
         <v>11</v>
       </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="1"/>
     </row>
@@ -20423,6 +20047,9 @@
       <c r="L13" s="5">
         <v>38</v>
       </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="1"/>
     </row>
@@ -20463,6 +20090,9 @@
       <c r="L14" s="5">
         <v>20</v>
       </c>
+      <c r="M14" t="s">
+        <v>17</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="1"/>
     </row>
@@ -20503,6 +20133,9 @@
       <c r="L15" s="5">
         <v>26</v>
       </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="1"/>
     </row>
@@ -20543,6 +20176,9 @@
       <c r="L16" s="5">
         <v>28</v>
       </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="1"/>
     </row>
@@ -20583,6 +20219,9 @@
       <c r="L17" s="5">
         <v>34</v>
       </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="1"/>
     </row>
@@ -20623,6 +20262,9 @@
       <c r="L18" s="5">
         <v>15</v>
       </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="1"/>
     </row>
@@ -20663,6 +20305,9 @@
       <c r="L19" s="5">
         <v>19</v>
       </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="1"/>
     </row>
@@ -20703,6 +20348,9 @@
       <c r="L20" s="5">
         <v>34</v>
       </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="1"/>
     </row>
@@ -20743,6 +20391,9 @@
       <c r="L21" s="5">
         <v>24</v>
       </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="1"/>
     </row>
@@ -20783,6 +20434,9 @@
       <c r="L22" s="5">
         <v>3</v>
       </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="1"/>
     </row>
@@ -20823,6 +20477,9 @@
       <c r="L23" s="5">
         <v>31</v>
       </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="1"/>
     </row>
@@ -20863,6 +20520,9 @@
       <c r="L24" s="5">
         <v>34</v>
       </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="1"/>
     </row>
@@ -20903,6 +20563,9 @@
       <c r="L25" s="5">
         <v>26</v>
       </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
@@ -20942,6 +20605,9 @@
       <c r="L26" s="5">
         <v>34</v>
       </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="1"/>
     </row>
@@ -20982,6 +20648,9 @@
       <c r="L27" s="5">
         <v>22</v>
       </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="1"/>
     </row>
@@ -21022,6 +20691,9 @@
       <c r="L28" s="5">
         <v>34</v>
       </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="1"/>
     </row>
@@ -21062,6 +20734,9 @@
       <c r="L29" s="5">
         <v>26</v>
       </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="1"/>
     </row>
@@ -21102,6 +20777,9 @@
       <c r="L30" s="5">
         <v>39</v>
       </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="1"/>
     </row>
@@ -21142,6 +20820,9 @@
       <c r="L31" s="5">
         <v>6</v>
       </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="1"/>
     </row>
@@ -21182,6 +20863,9 @@
       <c r="L32" s="5">
         <v>7</v>
       </c>
+      <c r="M32" t="s">
+        <v>13</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="1"/>
     </row>
@@ -21222,6 +20906,9 @@
       <c r="L33" s="5">
         <v>1</v>
       </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="1"/>
     </row>
@@ -21262,6 +20949,9 @@
       <c r="L34" s="5">
         <v>26</v>
       </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="1"/>
     </row>
@@ -21302,6 +20992,9 @@
       <c r="L35" s="5">
         <v>33</v>
       </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="1"/>
     </row>
@@ -21342,6 +21035,9 @@
       <c r="L36" s="5">
         <v>26</v>
       </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
       <c r="O36" s="4"/>
       <c r="P36" s="1"/>
     </row>
@@ -21382,6 +21078,9 @@
       <c r="L37" s="5">
         <v>34</v>
       </c>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="1"/>
     </row>
@@ -21422,6 +21121,9 @@
       <c r="L38" s="5">
         <v>8</v>
       </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
       <c r="O38" s="4"/>
       <c r="P38" s="1"/>
     </row>
@@ -21462,6 +21164,9 @@
       <c r="L39" s="5">
         <v>2</v>
       </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="1"/>
     </row>
@@ -21502,6 +21207,9 @@
       <c r="L40" s="5">
         <v>17</v>
       </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="1"/>
     </row>
@@ -21542,6 +21250,9 @@
       <c r="L41" s="5">
         <v>34</v>
       </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="1"/>
     </row>
@@ -21582,6 +21293,9 @@
       <c r="L42" s="5">
         <v>16</v>
       </c>
+      <c r="M42" t="s">
+        <v>30</v>
+      </c>
       <c r="O42" s="4"/>
       <c r="P42" s="1"/>
     </row>
@@ -21622,6 +21336,9 @@
       <c r="L43" s="5">
         <v>17</v>
       </c>
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="1"/>
     </row>
@@ -21662,6 +21379,9 @@
       <c r="L44" s="5">
         <v>13</v>
       </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="1"/>
     </row>
@@ -21702,6 +21422,9 @@
       <c r="L45" s="5">
         <v>34</v>
       </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="1"/>
     </row>
@@ -21742,6 +21465,9 @@
       <c r="L46" s="5">
         <v>21</v>
       </c>
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="1"/>
     </row>
@@ -21782,6 +21508,9 @@
       <c r="L47" s="5">
         <v>17</v>
       </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
       <c r="O47" s="4"/>
       <c r="P47" s="1"/>
     </row>
@@ -21822,6 +21551,9 @@
       <c r="L48" s="5">
         <v>4</v>
       </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="1"/>
     </row>
@@ -21862,6 +21594,9 @@
       <c r="L49" s="5">
         <v>37</v>
       </c>
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
       <c r="O49" s="4"/>
       <c r="P49" s="1"/>
     </row>
@@ -21902,6 +21637,9 @@
       <c r="L50" s="5">
         <v>26</v>
       </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
       <c r="O50" s="4"/>
       <c r="P50" s="1"/>
     </row>
@@ -21942,6 +21680,9 @@
       <c r="L51" s="5">
         <v>34</v>
       </c>
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
       <c r="O51" s="4"/>
       <c r="P51" s="1"/>
     </row>
@@ -21982,6 +21723,9 @@
       <c r="L52" s="5">
         <v>5</v>
       </c>
+      <c r="M52" t="s">
+        <v>30</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="1"/>
     </row>
@@ -22022,6 +21766,9 @@
       <c r="L53" s="5">
         <v>6</v>
       </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="1"/>
     </row>
@@ -22062,6 +21809,9 @@
       <c r="L54" s="5">
         <v>17</v>
       </c>
+      <c r="M54" t="s">
+        <v>13</v>
+      </c>
       <c r="O54" s="4"/>
       <c r="P54" s="1"/>
     </row>
@@ -22102,6 +21852,9 @@
       <c r="L55" s="5">
         <v>35</v>
       </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
       <c r="O55" s="4"/>
       <c r="P55" s="1"/>
     </row>
@@ -22142,6 +21895,9 @@
       <c r="L56" s="5">
         <v>4</v>
       </c>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
       <c r="O56" s="4"/>
       <c r="P56" s="1"/>
     </row>
@@ -22182,6 +21938,9 @@
       <c r="L57" s="5">
         <v>34</v>
       </c>
+      <c r="M57" t="s">
+        <v>13</v>
+      </c>
       <c r="O57" s="4"/>
       <c r="P57" s="1"/>
     </row>
@@ -22222,6 +21981,9 @@
       <c r="L58" s="5">
         <v>6</v>
       </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="P58" s="1"/>
     </row>
@@ -22262,6 +22024,9 @@
       <c r="L59" s="5">
         <v>37</v>
       </c>
+      <c r="M59" t="s">
+        <v>30</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="1"/>
     </row>
@@ -22302,6 +22067,9 @@
       <c r="L60" s="5">
         <v>8</v>
       </c>
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="1"/>
     </row>
@@ -22342,6 +22110,9 @@
       <c r="L61" s="5">
         <v>34</v>
       </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
       <c r="O61" s="4"/>
       <c r="P61" s="1"/>
     </row>
@@ -22382,6 +22153,9 @@
       <c r="L62" s="5">
         <v>17</v>
       </c>
+      <c r="M62" t="s">
+        <v>13</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="1"/>
     </row>
@@ -22422,6 +22196,9 @@
       <c r="L63" s="5">
         <v>40</v>
       </c>
+      <c r="M63" t="s">
+        <v>30</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="1"/>
     </row>
@@ -22462,6 +22239,9 @@
       <c r="L64" s="5">
         <v>8</v>
       </c>
+      <c r="M64" t="s">
+        <v>126</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="1"/>
     </row>
@@ -22502,6 +22282,9 @@
       <c r="L65" s="5">
         <v>31</v>
       </c>
+      <c r="M65" t="s">
+        <v>13</v>
+      </c>
       <c r="O65" s="4"/>
       <c r="P65" s="1"/>
     </row>
@@ -22542,6 +22325,9 @@
       <c r="L66" s="5">
         <v>21</v>
       </c>
+      <c r="M66" t="s">
+        <v>126</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="1"/>
     </row>
@@ -22582,6 +22368,9 @@
       <c r="L67" s="5">
         <v>17</v>
       </c>
+      <c r="M67" t="s">
+        <v>17</v>
+      </c>
       <c r="O67" s="4"/>
       <c r="P67" s="1"/>
     </row>
@@ -22622,6 +22411,9 @@
       <c r="L68" s="5">
         <v>34</v>
       </c>
+      <c r="M68" t="s">
+        <v>13</v>
+      </c>
       <c r="O68" s="4"/>
       <c r="P68" s="1"/>
     </row>
@@ -22662,6 +22454,9 @@
       <c r="L69" s="5">
         <v>30</v>
       </c>
+      <c r="M69" t="s">
+        <v>126</v>
+      </c>
       <c r="O69" s="4"/>
       <c r="P69" s="1"/>
     </row>
@@ -22702,6 +22497,9 @@
       <c r="L70" s="5">
         <v>29</v>
       </c>
+      <c r="M70" t="s">
+        <v>30</v>
+      </c>
       <c r="O70" s="4"/>
       <c r="P70" s="1"/>
     </row>
@@ -22742,6 +22540,9 @@
       <c r="L71" s="5">
         <v>34</v>
       </c>
+      <c r="M71" t="s">
+        <v>13</v>
+      </c>
       <c r="O71" s="4"/>
       <c r="P71" s="1"/>
     </row>
@@ -22782,6 +22583,9 @@
       <c r="L72" s="5">
         <v>15</v>
       </c>
+      <c r="M72" t="s">
+        <v>17</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="1"/>
     </row>
@@ -22822,6 +22626,9 @@
       <c r="L73" s="5">
         <v>25</v>
       </c>
+      <c r="M73" t="s">
+        <v>17</v>
+      </c>
       <c r="O73" s="4"/>
       <c r="P73" s="1"/>
     </row>
@@ -22862,6 +22669,9 @@
       <c r="L74" s="5">
         <v>40</v>
       </c>
+      <c r="M74" t="s">
+        <v>13</v>
+      </c>
       <c r="O74" s="4"/>
       <c r="P74" s="1"/>
     </row>
@@ -22902,6 +22712,9 @@
       <c r="L75" s="5">
         <v>11</v>
       </c>
+      <c r="M75" t="s">
+        <v>17</v>
+      </c>
       <c r="O75" s="4"/>
       <c r="P75" s="1"/>
     </row>
@@ -22942,6 +22755,9 @@
       <c r="L76" s="5">
         <v>14</v>
       </c>
+      <c r="M76" t="s">
+        <v>13</v>
+      </c>
       <c r="O76" s="4"/>
       <c r="P76" s="1"/>
     </row>
@@ -22982,6 +22798,9 @@
       <c r="L77" s="5">
         <v>8</v>
       </c>
+      <c r="M77" t="s">
+        <v>140</v>
+      </c>
       <c r="O77" s="4"/>
       <c r="P77" s="1"/>
     </row>
@@ -23022,6 +22841,9 @@
       <c r="L78" s="5">
         <v>19</v>
       </c>
+      <c r="M78" t="s">
+        <v>17</v>
+      </c>
       <c r="O78" s="4"/>
       <c r="P78" s="1"/>
     </row>
@@ -23062,6 +22884,9 @@
       <c r="L79" s="5">
         <v>31</v>
       </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
       <c r="O79" s="4"/>
       <c r="P79" s="1"/>
     </row>
@@ -23102,6 +22927,9 @@
       <c r="L80" s="5">
         <v>25</v>
       </c>
+      <c r="M80" t="s">
+        <v>13</v>
+      </c>
       <c r="O80" s="4"/>
       <c r="P80" s="1"/>
     </row>
@@ -23142,6 +22970,9 @@
       <c r="L81" s="5">
         <v>26</v>
       </c>
+      <c r="M81" t="s">
+        <v>13</v>
+      </c>
       <c r="O81" s="4"/>
       <c r="P81" s="1"/>
     </row>
@@ -23182,6 +23013,9 @@
       <c r="L82" s="5">
         <v>29</v>
       </c>
+      <c r="M82" t="s">
+        <v>17</v>
+      </c>
       <c r="O82" s="4"/>
       <c r="P82" s="1"/>
     </row>
@@ -23222,6 +23056,9 @@
       <c r="L83" s="5">
         <v>30</v>
       </c>
+      <c r="M83" t="s">
+        <v>13</v>
+      </c>
       <c r="O83" s="4"/>
       <c r="P83" s="1"/>
     </row>
@@ -23262,6 +23099,9 @@
       <c r="L84" s="5">
         <v>26</v>
       </c>
+      <c r="M84" t="s">
+        <v>13</v>
+      </c>
       <c r="O84" s="4"/>
       <c r="P84" s="1"/>
     </row>
@@ -23302,6 +23142,9 @@
       <c r="L85" s="5">
         <v>40</v>
       </c>
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
       <c r="O85" s="4"/>
       <c r="P85" s="1"/>
     </row>
@@ -23342,6 +23185,9 @@
       <c r="L86" s="5">
         <v>21</v>
       </c>
+      <c r="M86" t="s">
+        <v>17</v>
+      </c>
       <c r="O86" s="4"/>
       <c r="P86" s="1"/>
     </row>
@@ -23382,6 +23228,9 @@
       <c r="L87" s="5">
         <v>31</v>
       </c>
+      <c r="M87" t="s">
+        <v>13</v>
+      </c>
       <c r="O87" s="4"/>
       <c r="P87" s="1"/>
     </row>
@@ -23422,6 +23271,9 @@
       <c r="L88" s="5">
         <v>8</v>
       </c>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
       <c r="O88" s="4"/>
       <c r="P88" s="1"/>
     </row>
@@ -23462,6 +23314,9 @@
       <c r="L89" s="5">
         <v>15</v>
       </c>
+      <c r="M89" t="s">
+        <v>30</v>
+      </c>
       <c r="O89" s="4"/>
       <c r="P89" s="1"/>
     </row>
@@ -23502,6 +23357,9 @@
       <c r="L90" s="5">
         <v>18</v>
       </c>
+      <c r="M90" t="s">
+        <v>13</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="1"/>
     </row>
@@ -23542,6 +23400,9 @@
       <c r="L91" s="5">
         <v>32</v>
       </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
       <c r="O91" s="4"/>
       <c r="P91" s="1"/>
     </row>
@@ -23582,6 +23443,9 @@
       <c r="L92" s="5">
         <v>23</v>
       </c>
+      <c r="M92" t="s">
+        <v>30</v>
+      </c>
       <c r="O92" s="4"/>
       <c r="P92" s="1"/>
     </row>
@@ -23622,6 +23486,9 @@
       <c r="L93" s="5">
         <v>6</v>
       </c>
+      <c r="M93" t="s">
+        <v>20</v>
+      </c>
       <c r="O93" s="4"/>
       <c r="P93" s="1"/>
     </row>
@@ -23662,6 +23529,9 @@
       <c r="L94" s="5">
         <v>34</v>
       </c>
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
       <c r="O94" s="4"/>
       <c r="P94" s="1"/>
     </row>
@@ -23702,6 +23572,9 @@
       <c r="L95" s="5">
         <v>26</v>
       </c>
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
       <c r="O95" s="4"/>
       <c r="P95" s="1"/>
     </row>
@@ -23742,6 +23615,9 @@
       <c r="L96" s="5">
         <v>40</v>
       </c>
+      <c r="M96" t="s">
+        <v>25</v>
+      </c>
       <c r="O96" s="4"/>
       <c r="P96" s="1"/>
     </row>
@@ -23782,6 +23658,9 @@
       <c r="L97" s="5">
         <v>26</v>
       </c>
+      <c r="M97" t="s">
+        <v>30</v>
+      </c>
       <c r="O97" s="4"/>
       <c r="P97" s="1"/>
     </row>
@@ -23822,6 +23701,9 @@
       <c r="L98" s="5">
         <v>15</v>
       </c>
+      <c r="M98" t="s">
+        <v>13</v>
+      </c>
       <c r="O98" s="4"/>
       <c r="P98" s="1"/>
     </row>
@@ -23862,6 +23744,9 @@
       <c r="L99" s="5">
         <v>8</v>
       </c>
+      <c r="M99" t="s">
+        <v>25</v>
+      </c>
       <c r="O99" s="4"/>
       <c r="P99" s="1"/>
     </row>
@@ -23902,6 +23787,9 @@
       <c r="L100" s="5">
         <v>23</v>
       </c>
+      <c r="M100" t="s">
+        <v>13</v>
+      </c>
       <c r="O100" s="4"/>
       <c r="P100" s="1"/>
     </row>
@@ -23942,6 +23830,9 @@
       <c r="L101" s="5">
         <v>32</v>
       </c>
+      <c r="M101" t="s">
+        <v>30</v>
+      </c>
       <c r="O101" s="4"/>
       <c r="P101" s="1"/>
     </row>
@@ -23982,6 +23873,9 @@
       <c r="L102" s="5">
         <v>21</v>
       </c>
+      <c r="M102" t="s">
+        <v>25</v>
+      </c>
       <c r="O102" s="4"/>
       <c r="P102" s="1"/>
     </row>
@@ -24022,6 +23916,9 @@
       <c r="L103" s="5">
         <v>7</v>
       </c>
+      <c r="M103" t="s">
+        <v>13</v>
+      </c>
       <c r="O103" s="4"/>
       <c r="P103" s="1"/>
     </row>
@@ -24062,6 +23959,9 @@
       <c r="L104" s="5">
         <v>25</v>
       </c>
+      <c r="M104" t="s">
+        <v>20</v>
+      </c>
       <c r="O104" s="4"/>
       <c r="P104" s="1"/>
     </row>
@@ -24102,6 +24002,9 @@
       <c r="L105" s="5">
         <v>34</v>
       </c>
+      <c r="M105" t="s">
+        <v>13</v>
+      </c>
       <c r="O105" s="4"/>
       <c r="P105" s="1"/>
     </row>
@@ -24142,6 +24045,9 @@
       <c r="L106" s="5">
         <v>30</v>
       </c>
+      <c r="M106" t="s">
+        <v>13</v>
+      </c>
       <c r="O106" s="4"/>
       <c r="P106" s="1"/>
     </row>
@@ -24182,6 +24088,9 @@
       <c r="L107" s="5">
         <v>40</v>
       </c>
+      <c r="M107" t="s">
+        <v>25</v>
+      </c>
       <c r="O107" s="4"/>
       <c r="P107" s="1"/>
     </row>
@@ -24222,6 +24131,9 @@
       <c r="L108" s="5">
         <v>7</v>
       </c>
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
       <c r="O108" s="4"/>
       <c r="P108" s="1"/>
     </row>
@@ -24262,6 +24174,9 @@
       <c r="L109" s="5">
         <v>26</v>
       </c>
+      <c r="M109" t="s">
+        <v>17</v>
+      </c>
       <c r="O109" s="4"/>
       <c r="P109" s="1"/>
     </row>
@@ -24302,6 +24217,9 @@
       <c r="L110" s="5">
         <v>12</v>
       </c>
+      <c r="M110" t="s">
+        <v>30</v>
+      </c>
       <c r="O110" s="4"/>
       <c r="P110" s="1"/>
     </row>
@@ -24342,6 +24260,9 @@
       <c r="L111" s="5">
         <v>34</v>
       </c>
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
       <c r="O111" s="4"/>
       <c r="P111" s="1"/>
     </row>
@@ -24382,6 +24303,9 @@
       <c r="L112" s="5">
         <v>27</v>
       </c>
+      <c r="M112" t="s">
+        <v>20</v>
+      </c>
       <c r="O112" s="4"/>
       <c r="P112" s="1"/>
     </row>
@@ -24422,6 +24346,9 @@
       <c r="L113" s="5">
         <v>34</v>
       </c>
+      <c r="M113" t="s">
+        <v>13</v>
+      </c>
       <c r="O113" s="4"/>
       <c r="P113" s="1"/>
     </row>
@@ -24462,6 +24389,9 @@
       <c r="L114" s="5">
         <v>9</v>
       </c>
+      <c r="M114" t="s">
+        <v>25</v>
+      </c>
       <c r="O114" s="4"/>
       <c r="P114" s="1"/>
     </row>
@@ -24502,6 +24432,9 @@
       <c r="L115" s="5">
         <v>8</v>
       </c>
+      <c r="M115" t="s">
+        <v>13</v>
+      </c>
       <c r="O115" s="4"/>
       <c r="P115" s="1"/>
     </row>
@@ -24542,6 +24475,9 @@
       <c r="L116" s="5">
         <v>26</v>
       </c>
+      <c r="M116" t="s">
+        <v>30</v>
+      </c>
       <c r="O116" s="4"/>
       <c r="P116" s="1"/>
     </row>
@@ -24582,6 +24518,9 @@
       <c r="L117" s="5">
         <v>30</v>
       </c>
+      <c r="M117" t="s">
+        <v>13</v>
+      </c>
       <c r="O117" s="4"/>
       <c r="P117" s="1"/>
     </row>
@@ -24622,6 +24561,9 @@
       <c r="L118" s="5">
         <v>34</v>
       </c>
+      <c r="M118" t="s">
+        <v>13</v>
+      </c>
       <c r="O118" s="4"/>
       <c r="P118" s="1"/>
     </row>
@@ -24662,6 +24604,9 @@
       <c r="L119" s="5">
         <v>16</v>
       </c>
+      <c r="M119" t="s">
+        <v>25</v>
+      </c>
       <c r="O119" s="4"/>
       <c r="P119" s="1"/>
     </row>
@@ -24702,6 +24647,9 @@
       <c r="L120" s="5">
         <v>34</v>
       </c>
+      <c r="M120" t="s">
+        <v>13</v>
+      </c>
       <c r="O120" s="4"/>
       <c r="P120" s="1"/>
     </row>
@@ -24742,6 +24690,9 @@
       <c r="L121" s="5">
         <v>25</v>
       </c>
+      <c r="M121" t="s">
+        <v>30</v>
+      </c>
       <c r="O121" s="4"/>
       <c r="P121" s="1"/>
     </row>
@@ -24782,6 +24733,9 @@
       <c r="L122" s="5">
         <v>17</v>
       </c>
+      <c r="M122" t="s">
+        <v>13</v>
+      </c>
       <c r="O122" s="4"/>
       <c r="P122" s="1"/>
     </row>
@@ -24822,6 +24776,9 @@
       <c r="L123" s="5">
         <v>10</v>
       </c>
+      <c r="M123" t="s">
+        <v>25</v>
+      </c>
       <c r="O123" s="4"/>
       <c r="P123" s="1"/>
     </row>
@@ -24862,6 +24819,9 @@
       <c r="L124" s="5">
         <v>25</v>
       </c>
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
       <c r="O124" s="4"/>
       <c r="P124" s="1"/>
     </row>
@@ -24902,6 +24862,9 @@
       <c r="L125" s="5">
         <v>16</v>
       </c>
+      <c r="M125" t="s">
+        <v>25</v>
+      </c>
       <c r="O125" s="4"/>
       <c r="P125" s="1"/>
     </row>
@@ -24942,6 +24905,9 @@
       <c r="L126" s="5">
         <v>30</v>
       </c>
+      <c r="M126" t="s">
+        <v>30</v>
+      </c>
       <c r="O126" s="4"/>
       <c r="P126" s="1"/>
     </row>
@@ -24982,6 +24948,9 @@
       <c r="L127" s="5">
         <v>12</v>
       </c>
+      <c r="M127" t="s">
+        <v>13</v>
+      </c>
       <c r="O127" s="4"/>
       <c r="P127" s="1"/>
     </row>
@@ -25022,6 +24991,9 @@
       <c r="L128" s="5">
         <v>26</v>
       </c>
+      <c r="M128" t="s">
+        <v>13</v>
+      </c>
       <c r="O128" s="4"/>
       <c r="P128" s="1"/>
     </row>
@@ -25062,6 +25034,9 @@
       <c r="L129" s="5">
         <v>40</v>
       </c>
+      <c r="M129" t="s">
+        <v>25</v>
+      </c>
       <c r="O129" s="4"/>
       <c r="P129" s="1"/>
     </row>
@@ -25102,6 +25077,9 @@
       <c r="L130" s="5">
         <v>6</v>
       </c>
+      <c r="M130" t="s">
+        <v>30</v>
+      </c>
       <c r="O130" s="4"/>
       <c r="P130" s="1"/>
     </row>
@@ -25142,6 +25120,9 @@
       <c r="L131" s="5">
         <v>31</v>
       </c>
+      <c r="M131" t="s">
+        <v>13</v>
+      </c>
       <c r="O131" s="4"/>
       <c r="P131" s="1"/>
     </row>
@@ -25182,6 +25163,9 @@
       <c r="L132" s="5">
         <v>37</v>
       </c>
+      <c r="M132" t="s">
+        <v>25</v>
+      </c>
       <c r="O132" s="4"/>
       <c r="P132" s="1"/>
     </row>
@@ -25222,6 +25206,9 @@
       <c r="L133" s="5">
         <v>26</v>
       </c>
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
       <c r="O133" s="4"/>
       <c r="P133" s="1"/>
     </row>
@@ -25262,6 +25249,9 @@
       <c r="L134" s="5">
         <v>7</v>
       </c>
+      <c r="M134" t="s">
+        <v>30</v>
+      </c>
       <c r="O134" s="4"/>
       <c r="P134" s="1"/>
     </row>
@@ -25302,6 +25292,9 @@
       <c r="L135" s="5">
         <v>12</v>
       </c>
+      <c r="M135" t="s">
+        <v>13</v>
+      </c>
       <c r="O135" s="4"/>
       <c r="P135" s="1"/>
     </row>
@@ -25342,6 +25335,9 @@
       <c r="L136" s="5">
         <v>39</v>
       </c>
+      <c r="M136" t="s">
+        <v>30</v>
+      </c>
       <c r="O136" s="4"/>
       <c r="P136" s="1"/>
     </row>
@@ -25382,6 +25378,9 @@
       <c r="L137" s="5">
         <v>21</v>
       </c>
+      <c r="M137" t="s">
+        <v>25</v>
+      </c>
       <c r="O137" s="4"/>
       <c r="P137" s="1"/>
     </row>
@@ -25421,6 +25420,9 @@
       </c>
       <c r="L138" s="5">
         <v>36</v>
+      </c>
+      <c r="M138" t="s">
+        <v>13</v>
       </c>
       <c r="O138" s="4"/>
       <c r="P138" s="1"/>
